--- a/Code/Results/Cases/Case_4_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.32581842356193</v>
+        <v>7.969369857045184</v>
       </c>
       <c r="C2">
-        <v>7.385658418566381</v>
+        <v>5.195878383195836</v>
       </c>
       <c r="D2">
-        <v>7.148610770174864</v>
+        <v>5.977702694545851</v>
       </c>
       <c r="E2">
-        <v>14.61645263328359</v>
+        <v>12.81281460977439</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.32678905026111</v>
+        <v>26.58080220480687</v>
       </c>
       <c r="H2">
-        <v>8.43630887807867</v>
+        <v>13.73871556977121</v>
       </c>
       <c r="I2">
-        <v>12.48632769041706</v>
+        <v>19.70030335934489</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.32452245980439</v>
+        <v>7.96324129220353</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.5894688531641</v>
+        <v>13.30283403756381</v>
       </c>
       <c r="N2">
-        <v>11.65552532025981</v>
+        <v>18.08836794374145</v>
       </c>
       <c r="O2">
-        <v>13.7287503093838</v>
+        <v>20.62231329645772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57272801025711</v>
+        <v>7.666762284482881</v>
       </c>
       <c r="C3">
-        <v>7.007248554665217</v>
+        <v>5.019993534820838</v>
       </c>
       <c r="D3">
-        <v>6.658237252693246</v>
+        <v>5.857245263112068</v>
       </c>
       <c r="E3">
-        <v>13.75025941188858</v>
+        <v>12.60187461194797</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.81997774530663</v>
+        <v>26.5844931973599</v>
       </c>
       <c r="H3">
-        <v>8.4635847738663</v>
+        <v>13.77722697133975</v>
       </c>
       <c r="I3">
-        <v>12.5736810702708</v>
+        <v>19.77190954899463</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.72276686532897</v>
+        <v>7.677766151981976</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.65869308250084</v>
+        <v>13.12576387236318</v>
       </c>
       <c r="N3">
-        <v>11.84444653209917</v>
+        <v>18.14489452750833</v>
       </c>
       <c r="O3">
-        <v>13.65656968512905</v>
+        <v>20.67472979903178</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08439160749486</v>
+        <v>7.475829547520485</v>
       </c>
       <c r="C4">
-        <v>6.764094879393894</v>
+        <v>4.907790184318357</v>
       </c>
       <c r="D4">
-        <v>6.33985075187226</v>
+        <v>5.783740505790169</v>
       </c>
       <c r="E4">
-        <v>13.20256647414531</v>
+        <v>12.47503073122984</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.52650901526887</v>
+        <v>26.59529441312765</v>
       </c>
       <c r="H4">
-        <v>8.485568467845935</v>
+        <v>13.80299161355505</v>
       </c>
       <c r="I4">
-        <v>12.63679971873029</v>
+        <v>19.81950432080768</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.33505642572904</v>
+        <v>7.495279580964001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.05656966031676</v>
+        <v>13.01902840978592</v>
       </c>
       <c r="N4">
-        <v>11.96300818330804</v>
+        <v>18.18121419551629</v>
       </c>
       <c r="O4">
-        <v>13.62361940695232</v>
+        <v>20.71126297264361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.87888961026597</v>
+        <v>7.396853865502632</v>
       </c>
       <c r="C5">
-        <v>6.662341099252044</v>
+        <v>4.86104869240199</v>
       </c>
       <c r="D5">
-        <v>6.212421943363598</v>
+        <v>5.753948618913691</v>
       </c>
       <c r="E5">
-        <v>12.97561110800535</v>
+        <v>12.42408768199937</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.41143298436212</v>
+        <v>26.60183916582953</v>
       </c>
       <c r="H5">
-        <v>8.495799280883229</v>
+        <v>13.81402350322689</v>
       </c>
       <c r="I5">
-        <v>12.66480865526787</v>
+        <v>19.83981107605815</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.1725481845094</v>
+        <v>7.426744033419517</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.80348332680601</v>
+        <v>12.97608529095523</v>
       </c>
       <c r="N5">
-        <v>12.01198774684587</v>
+        <v>18.19642133564918</v>
       </c>
       <c r="O5">
-        <v>13.61296427725408</v>
+        <v>20.7272421140579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.84437437411249</v>
+        <v>7.383673196361558</v>
       </c>
       <c r="C6">
-        <v>6.645285638402948</v>
+        <v>4.853227114059469</v>
       </c>
       <c r="D6">
-        <v>6.193263006034464</v>
+        <v>5.749012864208463</v>
       </c>
       <c r="E6">
-        <v>12.93770530754748</v>
+        <v>12.4156758847452</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.39259877070224</v>
+        <v>26.60305523849489</v>
       </c>
       <c r="H6">
-        <v>8.497573662348003</v>
+        <v>13.81588750341833</v>
       </c>
       <c r="I6">
-        <v>12.66959491451161</v>
+        <v>19.84323802443049</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.14529366548358</v>
+        <v>7.418047756756295</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.76099227080575</v>
+        <v>12.96898951360837</v>
       </c>
       <c r="N6">
-        <v>12.02016148747338</v>
+        <v>18.19897106147404</v>
       </c>
       <c r="O6">
-        <v>13.61135983237851</v>
+        <v>20.72996130319375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08164642134847</v>
+        <v>7.474769017862632</v>
       </c>
       <c r="C7">
-        <v>6.762733313054669</v>
+        <v>4.907163875794791</v>
       </c>
       <c r="D7">
-        <v>6.338059689100874</v>
+        <v>5.783338003812564</v>
       </c>
       <c r="E7">
-        <v>13.19952059578213</v>
+        <v>12.47434057407622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.52493871338656</v>
+        <v>26.59537400558042</v>
       </c>
       <c r="H7">
-        <v>8.48570135070789</v>
+        <v>13.80313823721993</v>
       </c>
       <c r="I7">
-        <v>12.63716832028094</v>
+        <v>19.81977449533238</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.33288294919198</v>
+        <v>7.494260093670199</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.05318770429307</v>
+        <v>13.01844695778231</v>
       </c>
       <c r="N7">
-        <v>11.96366602130069</v>
+        <v>18.18141763650895</v>
       </c>
       <c r="O7">
-        <v>13.62346460035305</v>
+        <v>20.71147405604959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.07154459681883</v>
+        <v>7.866164280555027</v>
       </c>
       <c r="C8">
-        <v>7.257453029107218</v>
+        <v>5.136130030358618</v>
       </c>
       <c r="D8">
-        <v>6.983102263512117</v>
+        <v>5.936102243233372</v>
       </c>
       <c r="E8">
-        <v>14.32119365823471</v>
+        <v>12.73957249198682</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.148405111085</v>
+        <v>26.58030212520118</v>
       </c>
       <c r="H8">
-        <v>8.444599834019684</v>
+        <v>13.75155453990029</v>
       </c>
       <c r="I8">
-        <v>12.51441933316057</v>
+        <v>19.72423960860751</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.1208580038595</v>
+        <v>7.866340882491975</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.27488022021951</v>
+        <v>13.24140003413413</v>
       </c>
       <c r="N8">
-        <v>11.72014579614022</v>
+        <v>18.10752444105029</v>
       </c>
       <c r="O8">
-        <v>13.70145224699327</v>
+        <v>20.6394826235004</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.80661886132333</v>
+        <v>8.588300386094859</v>
       </c>
       <c r="C9">
-        <v>8.140172807047369</v>
+        <v>5.550161607171153</v>
       </c>
       <c r="D9">
-        <v>8.112109280892959</v>
+        <v>6.237268791624063</v>
       </c>
       <c r="E9">
-        <v>16.45398286389987</v>
+        <v>13.27759524737951</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.50819340573368</v>
+        <v>26.61852634484894</v>
       </c>
       <c r="H9">
-        <v>8.407581857167573</v>
+        <v>13.66721355377164</v>
       </c>
       <c r="I9">
-        <v>12.35348774401152</v>
+        <v>19.56572305277156</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.51915591133664</v>
+        <v>8.536378473829831</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.42892547779221</v>
+        <v>13.6920071610683</v>
       </c>
       <c r="N9">
-        <v>11.26197533951192</v>
+        <v>17.97535575645713</v>
       </c>
       <c r="O9">
-        <v>13.94820983055412</v>
+        <v>20.53290395805399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.95597744393529</v>
+        <v>9.08575603797301</v>
       </c>
       <c r="C10">
-        <v>8.733892643723637</v>
+        <v>5.831213250179655</v>
       </c>
       <c r="D10">
-        <v>8.860581417406864</v>
+        <v>6.456885280612151</v>
       </c>
       <c r="E10">
-        <v>18.06301970064149</v>
+        <v>13.6793544427299</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.58567950913254</v>
+        <v>26.68790105042817</v>
       </c>
       <c r="H10">
-        <v>8.409809974620902</v>
+        <v>13.61550564812409</v>
       </c>
       <c r="I10">
-        <v>12.29036697131255</v>
+        <v>19.46688668167289</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.4548844873446</v>
+        <v>8.989508414203819</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.86664965227637</v>
+        <v>14.02804989602822</v>
       </c>
       <c r="N10">
-        <v>10.93573737105</v>
+        <v>17.88593592517299</v>
       </c>
       <c r="O10">
-        <v>14.19127267938476</v>
+        <v>20.47580217079859</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.45182482845913</v>
+        <v>9.303948697857544</v>
       </c>
       <c r="C11">
-        <v>8.991937048178734</v>
+        <v>5.953736116110319</v>
       </c>
       <c r="D11">
-        <v>9.183901733566678</v>
+        <v>6.555914963984646</v>
       </c>
       <c r="E11">
-        <v>18.76460499008149</v>
+        <v>13.86260758246794</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.09171641716181</v>
+        <v>26.72838355432262</v>
       </c>
       <c r="H11">
-        <v>8.417844755088122</v>
+        <v>13.59421097626828</v>
       </c>
       <c r="I11">
-        <v>12.275086544589</v>
+        <v>19.42576189850044</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.86048594434285</v>
+        <v>9.18667761575492</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.48995484043968</v>
+        <v>14.18133550732549</v>
       </c>
       <c r="N11">
-        <v>10.78924062444014</v>
+        <v>17.84690817291007</v>
       </c>
       <c r="O11">
-        <v>14.31612764142258</v>
+        <v>20.45444886996778</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63572944860546</v>
+        <v>9.385343444518698</v>
       </c>
       <c r="C12">
-        <v>9.087915955679062</v>
+        <v>5.999344353729148</v>
       </c>
       <c r="D12">
-        <v>9.303900818730103</v>
+        <v>6.593248568753738</v>
       </c>
       <c r="E12">
-        <v>19.026010269297</v>
+        <v>13.9319969245829</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.28552777137299</v>
+        <v>26.7449896818351</v>
       </c>
       <c r="H12">
-        <v>8.42195001344831</v>
+        <v>13.58646766029726</v>
       </c>
       <c r="I12">
-        <v>12.2713573771234</v>
+        <v>19.41074165647643</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.01118610991321</v>
+        <v>9.260019332202869</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.72163189495471</v>
+        <v>14.23938601588976</v>
       </c>
       <c r="N12">
-        <v>10.73401147244392</v>
+        <v>17.83236536355465</v>
       </c>
       <c r="O12">
-        <v>14.3655242366315</v>
+        <v>20.44702895619836</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.5962936813885</v>
+        <v>9.367869279305596</v>
       </c>
       <c r="C13">
-        <v>9.067322452220495</v>
+        <v>5.989557195959465</v>
       </c>
       <c r="D13">
-        <v>9.278164646578702</v>
+        <v>6.585216153986948</v>
       </c>
       <c r="E13">
-        <v>18.96990019742608</v>
+        <v>13.91705406463887</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.24369126712278</v>
+        <v>26.74135662210272</v>
       </c>
       <c r="H13">
-        <v>8.421017757629345</v>
+        <v>13.58812106397622</v>
       </c>
       <c r="I13">
-        <v>12.27206699565332</v>
+        <v>19.41395192920071</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.97885879463912</v>
+        <v>9.244283157095424</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.67192871788302</v>
+        <v>14.22688446673341</v>
       </c>
       <c r="N13">
-        <v>10.74589559596857</v>
+        <v>17.83548693189751</v>
       </c>
       <c r="O13">
-        <v>14.35479070827522</v>
+        <v>20.44859732170545</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46703203703496</v>
+        <v>9.310670086284121</v>
       </c>
       <c r="C14">
-        <v>8.999868110380545</v>
+        <v>5.957504253155848</v>
       </c>
       <c r="D14">
-        <v>9.193822746266815</v>
+        <v>6.55898999102568</v>
       </c>
       <c r="E14">
-        <v>18.78619593586874</v>
+        <v>13.86831680009119</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.10761811116699</v>
+        <v>26.72972421807464</v>
       </c>
       <c r="H14">
-        <v>8.418160893273969</v>
+        <v>13.59356750433604</v>
       </c>
       <c r="I14">
-        <v>12.27473778494974</v>
+        <v>19.4245150882158</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.87294211502587</v>
+        <v>9.192738151367328</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.50910194994543</v>
+        <v>14.18611157928769</v>
       </c>
       <c r="N14">
-        <v>10.78469213024354</v>
+        <v>17.84570700053125</v>
       </c>
       <c r="O14">
-        <v>14.3201487651867</v>
+        <v>20.45382507198043</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38735329618648</v>
+        <v>9.275471958241125</v>
       </c>
       <c r="C15">
-        <v>8.958324124805896</v>
+        <v>5.937767603006744</v>
       </c>
       <c r="D15">
-        <v>9.141844738704261</v>
+        <v>6.542902812780616</v>
       </c>
       <c r="E15">
-        <v>18.67311879502939</v>
+        <v>13.83846102507421</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.02455131061303</v>
+        <v>26.7227650072126</v>
       </c>
       <c r="H15">
-        <v>8.416550958713248</v>
+        <v>13.59694535237387</v>
       </c>
       <c r="I15">
-        <v>12.27664540441005</v>
+        <v>19.43105735581905</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.8076883587492</v>
+        <v>9.160992278585326</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.40880067055251</v>
+        <v>14.1611359784432</v>
       </c>
       <c r="N15">
-        <v>10.80848727752949</v>
+        <v>17.85199780985497</v>
       </c>
       <c r="O15">
-        <v>14.29920701092581</v>
+        <v>20.45711400589675</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.92303097504383</v>
+        <v>9.07132783740415</v>
       </c>
       <c r="C16">
-        <v>8.716785932495883</v>
+        <v>5.823096894194084</v>
       </c>
       <c r="D16">
-        <v>8.839109081875408</v>
+        <v>6.450392295789246</v>
       </c>
       <c r="E16">
-        <v>18.01656638107529</v>
+        <v>13.66738180762546</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.55291988383991</v>
+        <v>26.6854344400804</v>
       </c>
       <c r="H16">
-        <v>8.409430681110162</v>
+        <v>13.61694214578938</v>
       </c>
       <c r="I16">
-        <v>12.29164655520724</v>
+        <v>19.46965157957294</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.42797293143535</v>
+        <v>8.976439654466285</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.82530218583679</v>
+        <v>14.01803595599832</v>
       </c>
       <c r="N16">
-        <v>10.94534730743939</v>
+        <v>17.88851958553601</v>
       </c>
       <c r="O16">
-        <v>14.18340602236628</v>
+        <v>20.4772908017017</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6312817340306</v>
+        <v>8.943967740068235</v>
       </c>
       <c r="C17">
-        <v>8.565520183395616</v>
+        <v>5.751368504524579</v>
       </c>
       <c r="D17">
-        <v>8.649017612746283</v>
+        <v>6.393386102811983</v>
       </c>
       <c r="E17">
-        <v>17.60607960824125</v>
+        <v>13.5625016552302</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.26758550484339</v>
+        <v>26.66481456122732</v>
       </c>
       <c r="H17">
-        <v>8.40689838367557</v>
+        <v>13.62978019838843</v>
       </c>
       <c r="I17">
-        <v>12.30437820337476</v>
+        <v>19.49431129816292</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.18988297971711</v>
+        <v>8.860902045790162</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.45951846237095</v>
+        <v>13.93031588827537</v>
       </c>
       <c r="N17">
-        <v>11.02977595875796</v>
+        <v>17.9113462860968</v>
       </c>
       <c r="O17">
-        <v>14.11607062533509</v>
+        <v>20.49085362891715</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.46093219460947</v>
+        <v>8.869954229966831</v>
       </c>
       <c r="C18">
-        <v>8.477382612197555</v>
+        <v>5.709611777464983</v>
       </c>
       <c r="D18">
-        <v>8.538064508241904</v>
+        <v>6.36051759943755</v>
       </c>
       <c r="E18">
-        <v>17.36711304288792</v>
+        <v>13.50222792412635</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.10496924588263</v>
+        <v>26.65379501673065</v>
       </c>
       <c r="H18">
-        <v>8.406099517800767</v>
+        <v>13.63737395984508</v>
       </c>
       <c r="I18">
-        <v>12.31295782473242</v>
+        <v>19.50885594551557</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.05105107624339</v>
+        <v>8.793606003345298</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.24623337752398</v>
+        <v>13.87990422941944</v>
       </c>
       <c r="N18">
-        <v>11.07851874217701</v>
+        <v>17.92463094943077</v>
       </c>
       <c r="O18">
-        <v>14.07868219341254</v>
+        <v>20.49908963822776</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.40281743602423</v>
+        <v>8.844766233625984</v>
       </c>
       <c r="C19">
-        <v>8.447346324159707</v>
+        <v>5.69538843925595</v>
       </c>
       <c r="D19">
-        <v>8.500218900434309</v>
+        <v>6.349376427101958</v>
       </c>
       <c r="E19">
-        <v>17.28570811993853</v>
+        <v>13.481831291362</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.0501709904722</v>
+        <v>26.65020851933499</v>
       </c>
       <c r="H19">
-        <v>8.405940384453261</v>
+        <v>13.63998107876177</v>
       </c>
       <c r="I19">
-        <v>12.31607480691518</v>
+        <v>19.51384248505869</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.00372090446905</v>
+        <v>8.77067722050481</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.17351952575832</v>
+        <v>13.86284473859575</v>
       </c>
       <c r="N19">
-        <v>11.09505425689921</v>
+        <v>17.92915562266314</v>
       </c>
       <c r="O19">
-        <v>14.06625145835325</v>
+        <v>20.50195288025352</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.66260200394522</v>
+        <v>8.957604528381522</v>
       </c>
       <c r="C20">
-        <v>8.581740052414888</v>
+        <v>5.759056079479103</v>
       </c>
       <c r="D20">
-        <v>8.669420346927822</v>
+        <v>6.399463098379712</v>
       </c>
       <c r="E20">
-        <v>17.65007251160801</v>
+        <v>13.57366164696782</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.29780527044752</v>
+        <v>26.66692264183252</v>
       </c>
       <c r="H20">
-        <v>8.407099505864119</v>
+        <v>13.62839186594597</v>
       </c>
       <c r="I20">
-        <v>12.30289193349919</v>
+        <v>19.49164885542893</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.21542362582591</v>
+        <v>8.873288607412437</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.49875605167935</v>
+        <v>13.93964983639133</v>
       </c>
       <c r="N20">
-        <v>11.02076978635543</v>
+        <v>17.90890027468884</v>
       </c>
       <c r="O20">
-        <v>14.12309932422596</v>
+        <v>20.48936480805011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.5051039403525</v>
+        <v>9.327504734158717</v>
       </c>
       <c r="C21">
-        <v>9.019728238007215</v>
+        <v>5.966940542078492</v>
       </c>
       <c r="D21">
-        <v>9.218661834012863</v>
+        <v>6.566698092133468</v>
       </c>
       <c r="E21">
-        <v>18.84026938084538</v>
+        <v>13.88263282871599</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.14752750271942</v>
+        <v>26.73310636354169</v>
       </c>
       <c r="H21">
-        <v>8.418970756706729</v>
+        <v>13.59195905260496</v>
       </c>
       <c r="I21">
-        <v>12.27389646264776</v>
+        <v>19.42139741980342</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.90413092317096</v>
+        <v>9.207914289225091</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.55704578058819</v>
+        <v>14.19808787651347</v>
       </c>
       <c r="N21">
-        <v>10.77329021006412</v>
+        <v>17.8426987180769</v>
       </c>
       <c r="O21">
-        <v>14.33026602118044</v>
+        <v>20.45227146670828</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.0332297277751</v>
+        <v>9.562061918565449</v>
       </c>
       <c r="C22">
-        <v>9.295856389767405</v>
+        <v>6.098200691761096</v>
       </c>
       <c r="D22">
-        <v>9.563444049289437</v>
+        <v>6.67500635503225</v>
       </c>
       <c r="E22">
-        <v>19.59329679467236</v>
+        <v>14.08450332378545</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.71557397232671</v>
+        <v>26.78379588388054</v>
       </c>
       <c r="H22">
-        <v>8.432948471183122</v>
+        <v>13.57001638525312</v>
       </c>
       <c r="I22">
-        <v>12.2669974421207</v>
+        <v>19.37870683740688</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.33738455859698</v>
+        <v>9.418893760617149</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.22334839588227</v>
+        <v>14.3669939855105</v>
       </c>
       <c r="N22">
-        <v>10.61296708831738</v>
+        <v>17.80080816144717</v>
       </c>
       <c r="O22">
-        <v>14.47802507957405</v>
+        <v>20.43191196136446</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.75340954638944</v>
+        <v>9.43755182696259</v>
       </c>
       <c r="C23">
-        <v>9.149408059721562</v>
+        <v>6.02857257964556</v>
       </c>
       <c r="D23">
-        <v>9.38071356021544</v>
+        <v>6.617303651655049</v>
       </c>
       <c r="E23">
-        <v>19.19362924036198</v>
+        <v>13.97679089200762</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.41126448861642</v>
+        <v>26.75606442832389</v>
       </c>
       <c r="H23">
-        <v>8.424901523311711</v>
+        <v>13.58155659007164</v>
       </c>
       <c r="I23">
-        <v>12.26953467585088</v>
+        <v>19.40119633999198</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.1076915747823</v>
+        <v>9.307006028685768</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.87002726161345</v>
+        <v>14.27686342998238</v>
       </c>
       <c r="N23">
-        <v>10.69841470184097</v>
+        <v>17.82304039203288</v>
       </c>
       <c r="O23">
-        <v>14.39801255784087</v>
+        <v>20.44242250049615</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.64845026908173</v>
+        <v>8.951441799800437</v>
       </c>
       <c r="C24">
-        <v>8.574410702410752</v>
+        <v>5.755582142100415</v>
       </c>
       <c r="D24">
-        <v>8.660201465564079</v>
+        <v>6.396715981094039</v>
       </c>
       <c r="E24">
-        <v>17.63019258517602</v>
+        <v>13.56861613647815</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.28413846433424</v>
+        <v>26.66596697680438</v>
       </c>
       <c r="H24">
-        <v>8.407006536164999</v>
+        <v>13.62901886758615</v>
       </c>
       <c r="I24">
-        <v>12.3035599608751</v>
+        <v>19.49285140129219</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.20388277548109</v>
+        <v>8.867691356237597</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.48102605898967</v>
+        <v>13.93542989258925</v>
       </c>
       <c r="N24">
-        <v>11.02484084049415</v>
+        <v>17.91000561394483</v>
       </c>
       <c r="O24">
-        <v>14.11991753158614</v>
+        <v>20.49003653797594</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.35930484210735</v>
+        <v>8.398407216521573</v>
       </c>
       <c r="C25">
-        <v>7.910923448317561</v>
+        <v>5.442101378114153</v>
       </c>
       <c r="D25">
-        <v>7.821045278842331</v>
+        <v>6.155901538747925</v>
       </c>
       <c r="E25">
-        <v>15.84387750552884</v>
+        <v>13.13059019726811</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.12615740978955</v>
+        <v>26.60092521461805</v>
       </c>
       <c r="H25">
-        <v>8.412639142385286</v>
+        <v>13.68822916129632</v>
       </c>
       <c r="I25">
-        <v>12.38782871701094</v>
+        <v>19.60551446656448</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.15686516556706</v>
+        <v>8.361811572869764</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.87184858307822</v>
+        <v>13.56900112857131</v>
       </c>
       <c r="N25">
-        <v>11.38399148456105</v>
+        <v>18.00975570305352</v>
       </c>
       <c r="O25">
-        <v>13.87091794880323</v>
+        <v>20.55802037565326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.969369857045184</v>
+        <v>12.32581842356199</v>
       </c>
       <c r="C2">
-        <v>5.195878383195836</v>
+        <v>7.385658418566178</v>
       </c>
       <c r="D2">
-        <v>5.977702694545851</v>
+        <v>7.148610770174882</v>
       </c>
       <c r="E2">
-        <v>12.81281460977439</v>
+        <v>14.61645263328358</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.58080220480687</v>
+        <v>21.32678905026108</v>
       </c>
       <c r="H2">
-        <v>13.73871556977121</v>
+        <v>8.436308878078725</v>
       </c>
       <c r="I2">
-        <v>19.70030335934489</v>
+        <v>12.486327690417</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.96324129220353</v>
+        <v>11.32452245980437</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.30283403756381</v>
+        <v>14.58946885316411</v>
       </c>
       <c r="N2">
-        <v>18.08836794374145</v>
+        <v>11.65552532025981</v>
       </c>
       <c r="O2">
-        <v>20.62231329645772</v>
+        <v>13.72875030938384</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.666762284482881</v>
+        <v>11.5727280102571</v>
       </c>
       <c r="C3">
-        <v>5.019993534820838</v>
+        <v>7.007248554665188</v>
       </c>
       <c r="D3">
-        <v>5.857245263112068</v>
+        <v>6.658237252693215</v>
       </c>
       <c r="E3">
-        <v>12.60187461194797</v>
+        <v>13.75025941188856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.5844931973599</v>
+        <v>20.81997774530676</v>
       </c>
       <c r="H3">
-        <v>13.77722697133975</v>
+        <v>8.463584773866319</v>
       </c>
       <c r="I3">
-        <v>19.77190954899463</v>
+        <v>12.57368107027083</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.677766151981976</v>
+        <v>10.72276686532892</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.12576387236318</v>
+        <v>13.65869308250083</v>
       </c>
       <c r="N3">
-        <v>18.14489452750833</v>
+        <v>11.84444653209917</v>
       </c>
       <c r="O3">
-        <v>20.67472979903178</v>
+        <v>13.65656968512912</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.475829547520485</v>
+        <v>11.08439160749485</v>
       </c>
       <c r="C4">
-        <v>4.907790184318357</v>
+        <v>6.764094879393823</v>
       </c>
       <c r="D4">
-        <v>5.783740505790169</v>
+        <v>6.339850751872242</v>
       </c>
       <c r="E4">
-        <v>12.47503073122984</v>
+        <v>13.20256647414531</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.59529441312765</v>
+        <v>20.52650901526887</v>
       </c>
       <c r="H4">
-        <v>13.80299161355505</v>
+        <v>8.485568467845882</v>
       </c>
       <c r="I4">
-        <v>19.81950432080768</v>
+        <v>12.63679971873024</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.495279580964001</v>
+        <v>10.33505642572905</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.01902840978592</v>
+        <v>13.05656966031679</v>
       </c>
       <c r="N4">
-        <v>18.18121419551629</v>
+        <v>11.96300818330798</v>
       </c>
       <c r="O4">
-        <v>20.71126297264361</v>
+        <v>13.62361940695227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.396853865502632</v>
+        <v>10.87888961026593</v>
       </c>
       <c r="C5">
-        <v>4.86104869240199</v>
+        <v>6.662341099252228</v>
       </c>
       <c r="D5">
-        <v>5.753948618913691</v>
+        <v>6.212421943363585</v>
       </c>
       <c r="E5">
-        <v>12.42408768199937</v>
+        <v>12.97561110800533</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.60183916582953</v>
+        <v>20.41143298436208</v>
       </c>
       <c r="H5">
-        <v>13.81402350322689</v>
+        <v>8.495799280883176</v>
       </c>
       <c r="I5">
-        <v>19.83981107605815</v>
+        <v>12.66480865526785</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.426744033419517</v>
+        <v>10.17254818450945</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.97608529095523</v>
+        <v>12.80348332680603</v>
       </c>
       <c r="N5">
-        <v>18.19642133564918</v>
+        <v>12.01198774684583</v>
       </c>
       <c r="O5">
-        <v>20.7272421140579</v>
+        <v>13.61296427725402</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.383673196361558</v>
+        <v>10.84437437411255</v>
       </c>
       <c r="C6">
-        <v>4.853227114059469</v>
+        <v>6.645285638402925</v>
       </c>
       <c r="D6">
-        <v>5.749012864208463</v>
+        <v>6.193263006034448</v>
       </c>
       <c r="E6">
-        <v>12.4156758847452</v>
+        <v>12.93770530754749</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.60305523849489</v>
+        <v>20.39259877070209</v>
       </c>
       <c r="H6">
-        <v>13.81588750341833</v>
+        <v>8.497573662347945</v>
       </c>
       <c r="I6">
-        <v>19.84323802443049</v>
+        <v>12.66959491451156</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.418047756756295</v>
+        <v>10.1452936654836</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.96898951360837</v>
+        <v>12.76099227080578</v>
       </c>
       <c r="N6">
-        <v>18.19897106147404</v>
+        <v>12.02016148747334</v>
       </c>
       <c r="O6">
-        <v>20.72996130319375</v>
+        <v>13.61135983237844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.474769017862632</v>
+        <v>11.08164642134851</v>
       </c>
       <c r="C7">
-        <v>4.907163875794791</v>
+        <v>6.762733313054533</v>
       </c>
       <c r="D7">
-        <v>5.783338003812564</v>
+        <v>6.338059689100881</v>
       </c>
       <c r="E7">
-        <v>12.47434057407622</v>
+        <v>13.19952059578215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.59537400558042</v>
+        <v>20.52493871338656</v>
       </c>
       <c r="H7">
-        <v>13.80313823721993</v>
+        <v>8.485701350707881</v>
       </c>
       <c r="I7">
-        <v>19.81977449533238</v>
+        <v>12.63716832028092</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.494260093670199</v>
+        <v>10.33288294919197</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.01844695778231</v>
+        <v>13.05318770429308</v>
       </c>
       <c r="N7">
-        <v>18.18141763650895</v>
+        <v>11.96366602130069</v>
       </c>
       <c r="O7">
-        <v>20.71147405604959</v>
+        <v>13.62346460035305</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.866164280555027</v>
+        <v>12.0715445968189</v>
       </c>
       <c r="C8">
-        <v>5.136130030358618</v>
+        <v>7.257453029107205</v>
       </c>
       <c r="D8">
-        <v>5.936102243233372</v>
+        <v>6.983102263512173</v>
       </c>
       <c r="E8">
-        <v>12.73957249198682</v>
+        <v>14.32119365823473</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.58030212520118</v>
+        <v>21.14840511108488</v>
       </c>
       <c r="H8">
-        <v>13.75155453990029</v>
+        <v>8.444599834019636</v>
       </c>
       <c r="I8">
-        <v>19.72423960860751</v>
+        <v>12.5144193331605</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.866340882491975</v>
+        <v>11.12085800385954</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.24140003413413</v>
+        <v>14.27488022021955</v>
       </c>
       <c r="N8">
-        <v>18.10752444105029</v>
+        <v>11.72014579614012</v>
       </c>
       <c r="O8">
-        <v>20.6394826235004</v>
+        <v>13.70145224699318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.588300386094859</v>
+        <v>13.80661886132333</v>
       </c>
       <c r="C9">
-        <v>5.550161607171153</v>
+        <v>8.140172807047341</v>
       </c>
       <c r="D9">
-        <v>6.237268791624063</v>
+        <v>8.112109280892938</v>
       </c>
       <c r="E9">
-        <v>13.27759524737951</v>
+        <v>16.45398286389989</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.61852634484894</v>
+        <v>22.50819340573382</v>
       </c>
       <c r="H9">
-        <v>13.66721355377164</v>
+        <v>8.407581857167589</v>
       </c>
       <c r="I9">
-        <v>19.56572305277156</v>
+        <v>12.35348774401162</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.536378473829831</v>
+        <v>12.5191559113366</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.6920071610683</v>
+        <v>16.42892547779219</v>
       </c>
       <c r="N9">
-        <v>17.97535575645713</v>
+        <v>11.26197533951199</v>
       </c>
       <c r="O9">
-        <v>20.53290395805399</v>
+        <v>13.94820983055422</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.08575603797301</v>
+        <v>14.95597744393535</v>
       </c>
       <c r="C10">
-        <v>5.831213250179655</v>
+        <v>8.73389264372352</v>
       </c>
       <c r="D10">
-        <v>6.456885280612151</v>
+        <v>8.860581417406916</v>
       </c>
       <c r="E10">
-        <v>13.6793544427299</v>
+        <v>18.0630197006415</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.68790105042817</v>
+        <v>23.58567950913257</v>
       </c>
       <c r="H10">
-        <v>13.61550564812409</v>
+        <v>8.409809974620902</v>
       </c>
       <c r="I10">
-        <v>19.46688668167289</v>
+        <v>12.29036697131254</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.989508414203819</v>
+        <v>13.4548844873446</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.02804989602822</v>
+        <v>17.86664965227637</v>
       </c>
       <c r="N10">
-        <v>17.88593592517299</v>
+        <v>10.93573737105003</v>
       </c>
       <c r="O10">
-        <v>20.47580217079859</v>
+        <v>14.19127267938479</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.303948697857544</v>
+        <v>15.45182482845916</v>
       </c>
       <c r="C11">
-        <v>5.953736116110319</v>
+        <v>8.991937048178645</v>
       </c>
       <c r="D11">
-        <v>6.555914963984646</v>
+        <v>9.183901733566728</v>
       </c>
       <c r="E11">
-        <v>13.86260758246794</v>
+        <v>18.76460499008156</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.72838355432262</v>
+        <v>24.09171641716182</v>
       </c>
       <c r="H11">
-        <v>13.59421097626828</v>
+        <v>8.417844755088165</v>
       </c>
       <c r="I11">
-        <v>19.42576189850044</v>
+        <v>12.275086544589</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.18667761575492</v>
+        <v>13.86048594434284</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.18133550732549</v>
+        <v>18.48995484043972</v>
       </c>
       <c r="N11">
-        <v>17.84690817291007</v>
+        <v>10.78924062444014</v>
       </c>
       <c r="O11">
-        <v>20.45444886996778</v>
+        <v>14.31612764142261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.385343444518698</v>
+        <v>15.63572944860546</v>
       </c>
       <c r="C12">
-        <v>5.999344353729148</v>
+        <v>9.087915955679149</v>
       </c>
       <c r="D12">
-        <v>6.593248568753738</v>
+        <v>9.303900818730094</v>
       </c>
       <c r="E12">
-        <v>13.9319969245829</v>
+        <v>19.026010269297</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.7449896818351</v>
+        <v>24.28552777137302</v>
       </c>
       <c r="H12">
-        <v>13.58646766029726</v>
+        <v>8.421950013448225</v>
       </c>
       <c r="I12">
-        <v>19.41074165647643</v>
+        <v>12.27135737712342</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.260019332202869</v>
+        <v>14.01118610991323</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.23938601588976</v>
+        <v>18.72163189495473</v>
       </c>
       <c r="N12">
-        <v>17.83236536355465</v>
+        <v>10.73401147244395</v>
       </c>
       <c r="O12">
-        <v>20.44702895619836</v>
+        <v>14.3655242366315</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.367869279305596</v>
+        <v>15.59629368138845</v>
       </c>
       <c r="C13">
-        <v>5.989557195959465</v>
+        <v>9.067322452220495</v>
       </c>
       <c r="D13">
-        <v>6.585216153986948</v>
+        <v>9.278164646578704</v>
       </c>
       <c r="E13">
-        <v>13.91705406463887</v>
+        <v>18.96990019742609</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.74135662210272</v>
+        <v>24.24369126712281</v>
       </c>
       <c r="H13">
-        <v>13.58812106397622</v>
+        <v>8.421017757629345</v>
       </c>
       <c r="I13">
-        <v>19.41395192920071</v>
+        <v>12.27206699565328</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.244283157095424</v>
+        <v>13.9788587946391</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.22688446673341</v>
+        <v>18.67192871788302</v>
       </c>
       <c r="N13">
-        <v>17.83548693189751</v>
+        <v>10.74589559596853</v>
       </c>
       <c r="O13">
-        <v>20.44859732170545</v>
+        <v>14.35479070827522</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.310670086284121</v>
+        <v>15.46703203703491</v>
       </c>
       <c r="C14">
-        <v>5.957504253155848</v>
+        <v>8.999868110380531</v>
       </c>
       <c r="D14">
-        <v>6.55898999102568</v>
+        <v>9.193822746266795</v>
       </c>
       <c r="E14">
-        <v>13.86831680009119</v>
+        <v>18.78619593586876</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.72972421807464</v>
+        <v>24.10761811116699</v>
       </c>
       <c r="H14">
-        <v>13.59356750433604</v>
+        <v>8.418160893273974</v>
       </c>
       <c r="I14">
-        <v>19.4245150882158</v>
+        <v>12.27473778494976</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.192738151367328</v>
+        <v>13.87294211502587</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.18611157928769</v>
+        <v>18.50910194994545</v>
       </c>
       <c r="N14">
-        <v>17.84570700053125</v>
+        <v>10.7846921302435</v>
       </c>
       <c r="O14">
-        <v>20.45382507198043</v>
+        <v>14.32014876518669</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.275471958241125</v>
+        <v>15.38735329618644</v>
       </c>
       <c r="C15">
-        <v>5.937767603006744</v>
+        <v>8.958324124805909</v>
       </c>
       <c r="D15">
-        <v>6.542902812780616</v>
+        <v>9.141844738704201</v>
       </c>
       <c r="E15">
-        <v>13.83846102507421</v>
+        <v>18.67311879502936</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.7227650072126</v>
+        <v>24.02455131061306</v>
       </c>
       <c r="H15">
-        <v>13.59694535237387</v>
+        <v>8.416550958713371</v>
       </c>
       <c r="I15">
-        <v>19.43105735581905</v>
+        <v>12.27664540441015</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.160992278585326</v>
+        <v>13.80768835874921</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.1611359784432</v>
+        <v>18.4088006705525</v>
       </c>
       <c r="N15">
-        <v>17.85199780985497</v>
+        <v>10.80848727752956</v>
       </c>
       <c r="O15">
-        <v>20.45711400589675</v>
+        <v>14.29920701092585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.07132783740415</v>
+        <v>14.92303097504385</v>
       </c>
       <c r="C16">
-        <v>5.823096894194084</v>
+        <v>8.716785932495842</v>
       </c>
       <c r="D16">
-        <v>6.450392295789246</v>
+        <v>8.839109081875453</v>
       </c>
       <c r="E16">
-        <v>13.66738180762546</v>
+        <v>18.01656638107521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.6854344400804</v>
+        <v>23.55291988383999</v>
       </c>
       <c r="H16">
-        <v>13.61694214578938</v>
+        <v>8.40943068111017</v>
       </c>
       <c r="I16">
-        <v>19.46965157957294</v>
+        <v>12.29164655520727</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.976439654466285</v>
+        <v>13.42797293143535</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.01803595599832</v>
+        <v>17.82530218583673</v>
       </c>
       <c r="N16">
-        <v>17.88851958553601</v>
+        <v>10.94534730743939</v>
       </c>
       <c r="O16">
-        <v>20.4772908017017</v>
+        <v>14.18340602236631</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.943967740068235</v>
+        <v>14.6312817340306</v>
       </c>
       <c r="C17">
-        <v>5.751368504524579</v>
+        <v>8.565520183395455</v>
       </c>
       <c r="D17">
-        <v>6.393386102811983</v>
+        <v>8.649017612746295</v>
       </c>
       <c r="E17">
-        <v>13.5625016552302</v>
+        <v>17.60607960824123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.66481456122732</v>
+        <v>23.26758550484357</v>
       </c>
       <c r="H17">
-        <v>13.62978019838843</v>
+        <v>8.406898383675633</v>
       </c>
       <c r="I17">
-        <v>19.49431129816292</v>
+        <v>12.30437820337486</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.860902045790162</v>
+        <v>13.18988297971707</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.93031588827537</v>
+        <v>17.45951846237095</v>
       </c>
       <c r="N17">
-        <v>17.9113462860968</v>
+        <v>11.02977595875803</v>
       </c>
       <c r="O17">
-        <v>20.49085362891715</v>
+        <v>14.11607062533522</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.869954229966831</v>
+        <v>14.46093219460953</v>
       </c>
       <c r="C18">
-        <v>5.709611777464983</v>
+        <v>8.477382612197374</v>
       </c>
       <c r="D18">
-        <v>6.36051759943755</v>
+        <v>8.538064508241796</v>
       </c>
       <c r="E18">
-        <v>13.50222792412635</v>
+        <v>17.36711304288791</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.65379501673065</v>
+        <v>23.10496924588265</v>
       </c>
       <c r="H18">
-        <v>13.63737395984508</v>
+        <v>8.406099517800827</v>
       </c>
       <c r="I18">
-        <v>19.50885594551557</v>
+        <v>12.31295782473242</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.793606003345298</v>
+        <v>13.05105107624339</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.87990422941944</v>
+        <v>17.24623337752396</v>
       </c>
       <c r="N18">
-        <v>17.92463094943077</v>
+        <v>11.07851874217701</v>
       </c>
       <c r="O18">
-        <v>20.49908963822776</v>
+        <v>14.07868219341256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.844766233625984</v>
+        <v>14.40281743602428</v>
       </c>
       <c r="C19">
-        <v>5.69538843925595</v>
+        <v>8.447346324159554</v>
       </c>
       <c r="D19">
-        <v>6.349376427101958</v>
+        <v>8.500218900434353</v>
       </c>
       <c r="E19">
-        <v>13.481831291362</v>
+        <v>17.28570811993855</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.65020851933499</v>
+        <v>23.05017099047226</v>
       </c>
       <c r="H19">
-        <v>13.63998107876177</v>
+        <v>8.405940384453267</v>
       </c>
       <c r="I19">
-        <v>19.51384248505869</v>
+        <v>12.31607480691521</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.77067722050481</v>
+        <v>13.00372090446906</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.86284473859575</v>
+        <v>17.17351952575835</v>
       </c>
       <c r="N19">
-        <v>17.92915562266314</v>
+        <v>11.09505425689921</v>
       </c>
       <c r="O19">
-        <v>20.50195288025352</v>
+        <v>14.06625145835328</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.957604528381522</v>
+        <v>14.66260200394526</v>
       </c>
       <c r="C20">
-        <v>5.759056079479103</v>
+        <v>8.58174005241486</v>
       </c>
       <c r="D20">
-        <v>6.399463098379712</v>
+        <v>8.669420346927835</v>
       </c>
       <c r="E20">
-        <v>13.57366164696782</v>
+        <v>17.65007251160798</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.66692264183252</v>
+        <v>23.29780527044746</v>
       </c>
       <c r="H20">
-        <v>13.62839186594597</v>
+        <v>8.407099505864069</v>
       </c>
       <c r="I20">
-        <v>19.49164885542893</v>
+        <v>12.30289193349916</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.873288607412437</v>
+        <v>13.21542362582595</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.93964983639133</v>
+        <v>17.49875605167935</v>
       </c>
       <c r="N20">
-        <v>17.90890027468884</v>
+        <v>11.02076978635543</v>
       </c>
       <c r="O20">
-        <v>20.48936480805011</v>
+        <v>14.12309932422589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.327504734158717</v>
+        <v>15.50510394035251</v>
       </c>
       <c r="C21">
-        <v>5.966940542078492</v>
+        <v>9.019728238007303</v>
       </c>
       <c r="D21">
-        <v>6.566698092133468</v>
+        <v>9.218661834012972</v>
       </c>
       <c r="E21">
-        <v>13.88263282871599</v>
+        <v>18.84026938084538</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.73310636354169</v>
+        <v>24.14752750271943</v>
       </c>
       <c r="H21">
-        <v>13.59195905260496</v>
+        <v>8.418970756706679</v>
       </c>
       <c r="I21">
-        <v>19.42139741980342</v>
+        <v>12.27389646264777</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.207914289225091</v>
+        <v>13.904130923171</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.19808787651347</v>
+        <v>18.55704578058821</v>
       </c>
       <c r="N21">
-        <v>17.8426987180769</v>
+        <v>10.77329021006412</v>
       </c>
       <c r="O21">
-        <v>20.45227146670828</v>
+        <v>14.33026602118041</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.562061918565449</v>
+        <v>16.03322972777514</v>
       </c>
       <c r="C22">
-        <v>6.098200691761096</v>
+        <v>9.295856389767417</v>
       </c>
       <c r="D22">
-        <v>6.67500635503225</v>
+        <v>9.563444049289444</v>
       </c>
       <c r="E22">
-        <v>14.08450332378545</v>
+        <v>19.59329679467233</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.78379588388054</v>
+        <v>24.7155739723267</v>
       </c>
       <c r="H22">
-        <v>13.57001638525312</v>
+        <v>8.432948471183163</v>
       </c>
       <c r="I22">
-        <v>19.37870683740688</v>
+        <v>12.26699744212075</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.418893760617149</v>
+        <v>14.337384558597</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.3669939855105</v>
+        <v>19.22334839588226</v>
       </c>
       <c r="N22">
-        <v>17.80080816144717</v>
+        <v>10.61296708831745</v>
       </c>
       <c r="O22">
-        <v>20.43191196136446</v>
+        <v>14.47802507957407</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.43755182696259</v>
+        <v>15.7534095463895</v>
       </c>
       <c r="C23">
-        <v>6.02857257964556</v>
+        <v>9.14940805972171</v>
       </c>
       <c r="D23">
-        <v>6.617303651655049</v>
+        <v>9.380713560215364</v>
       </c>
       <c r="E23">
-        <v>13.97679089200762</v>
+        <v>19.19362924036196</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.75606442832389</v>
+        <v>24.41126448861646</v>
       </c>
       <c r="H23">
-        <v>13.58155659007164</v>
+        <v>8.424901523311583</v>
       </c>
       <c r="I23">
-        <v>19.40119633999198</v>
+        <v>12.26953467585086</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.307006028685768</v>
+        <v>14.10769157478236</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.27686342998238</v>
+        <v>18.87002726161347</v>
       </c>
       <c r="N23">
-        <v>17.82304039203288</v>
+        <v>10.6984147018409</v>
       </c>
       <c r="O23">
-        <v>20.44242250049615</v>
+        <v>14.39801255784082</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.951441799800437</v>
+        <v>14.64845026908166</v>
       </c>
       <c r="C24">
-        <v>5.755582142100415</v>
+        <v>8.574410702410843</v>
       </c>
       <c r="D24">
-        <v>6.396715981094039</v>
+        <v>8.660201465564093</v>
       </c>
       <c r="E24">
-        <v>13.56861613647815</v>
+        <v>17.63019258517603</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.66596697680438</v>
+        <v>23.28413846433422</v>
       </c>
       <c r="H24">
-        <v>13.62901886758615</v>
+        <v>8.407006536164994</v>
       </c>
       <c r="I24">
-        <v>19.49285140129219</v>
+        <v>12.3035599608751</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.867691356237597</v>
+        <v>13.20388277548108</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.93542989258925</v>
+        <v>17.48102605898968</v>
       </c>
       <c r="N24">
-        <v>17.91000561394483</v>
+        <v>11.02484084049412</v>
       </c>
       <c r="O24">
-        <v>20.49003653797594</v>
+        <v>14.11991753158611</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.398407216521573</v>
+        <v>13.35930484210735</v>
       </c>
       <c r="C25">
-        <v>5.442101378114153</v>
+        <v>7.91092344831748</v>
       </c>
       <c r="D25">
-        <v>6.155901538747925</v>
+        <v>7.821045278842351</v>
       </c>
       <c r="E25">
-        <v>13.13059019726811</v>
+        <v>15.84387750552883</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.60092521461805</v>
+        <v>22.12615740978957</v>
       </c>
       <c r="H25">
-        <v>13.68822916129632</v>
+        <v>8.412639142385276</v>
       </c>
       <c r="I25">
-        <v>19.60551446656448</v>
+        <v>12.38782871701093</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.361811572869764</v>
+        <v>12.15686516556705</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.56900112857131</v>
+        <v>15.87184858307823</v>
       </c>
       <c r="N25">
-        <v>18.00975570305352</v>
+        <v>11.38399148456105</v>
       </c>
       <c r="O25">
-        <v>20.55802037565326</v>
+        <v>13.87091794880321</v>
       </c>
     </row>
   </sheetData>
